--- a/app/data/static/params/milk_project_test.xlsx
+++ b/app/data/static/params/milk_project_test.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -450,7 +450,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>27</v>
